--- a/_Out/Server/NFDataCfg/Excel_Ini/MasterServer.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/MasterServer.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>ServerID</t>
   </si>
@@ -40,6 +40,16 @@
   </si>
   <si>
     <t>MaxOnline</t>
+  </si>
+  <si>
+    <t>000106001</t>
+  </si>
+  <si>
+    <t>127.0.0.1</t>
+  </si>
+  <si>
+    <t>MasterServer_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -451,7 +461,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="A2:H7"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -487,8 +497,27 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>5000</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>2001</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>

--- a/_Out/Server/NFDataCfg/Excel_Ini/MasterServer.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/MasterServer.xlsx
@@ -461,7 +461,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -516,7 +516,7 @@
         <v>8</v>
       </c>
       <c r="G2">
-        <v>2001</v>
+        <v>12001</v>
       </c>
     </row>
     <row r="3" spans="1:7">
